--- a/data/IWG_inputs/PAGE/Non-co2 perturbation data - 1 Mt.xlsx
+++ b/data/IWG_inputs/PAGE/Non-co2 perturbation data - 1 Mt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bparthum\.julia\dev\MimiIWG\data\IWG_inputs\PAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B500360-86E1-415D-A492-0F8D2E619F2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F3B14-8F04-46D4-AF85-439424A4C344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
   <si>
     <t>Pertubation in the PAGE Excess Forcings vector due to a 1 Mt shock in CH4</t>
   </si>
@@ -97,11 +97,20 @@
   <si>
     <t>PAGE input: N2O Shock, 2060</t>
   </si>
+  <si>
+    <t>PAGE input: CH4 Shock, 2070</t>
+  </si>
+  <si>
+    <t>PAGE input: N2O Shock, 2070</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="194" formatCode="0.00000000000000000000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,17 +160,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="194" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="194" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,2894 +459,3325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV27"/>
+  <dimension ref="A1:BC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR4" sqref="AR4"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BC16" sqref="BC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="6" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="11" style="8" customWidth="1"/>
+    <col min="9" max="13" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="11.7109375" style="8" customWidth="1"/>
+    <col min="23" max="27" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="2"/>
+    <col min="29" max="29" width="11.42578125" style="8" customWidth="1"/>
+    <col min="30" max="34" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" style="2"/>
+    <col min="36" max="36" width="9.140625" style="8" customWidth="1"/>
+    <col min="37" max="41" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="2"/>
+    <col min="43" max="43" width="7.5703125" style="8" customWidth="1"/>
+    <col min="44" max="48" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="2"/>
+    <col min="50" max="50" width="9.7109375" style="8" customWidth="1"/>
+    <col min="51" max="55" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="AX2" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="4" t="s">
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="4" t="s">
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="AX3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2010</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1.6860518091291867</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1.5273282207505336</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1.502102849476743</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>1.4667586601902891</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>1.5422163221009639</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>2010</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>1.2019515711437778E-4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>1.2898493119117838E-4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>1.2482341164766765E-4</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>1.2449481507806893E-4</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>1.2572368585304084E-4</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="6">
         <v>2010</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0</v>
-      </c>
-      <c r="V4" s="5">
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="V4" s="11">
         <v>2010</v>
       </c>
-      <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="5">
+      <c r="W4" s="6">
+        <v>0</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
         <v>2010</v>
       </c>
-      <c r="AD4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="5">
+      <c r="AD4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="11">
         <v>2010</v>
       </c>
-      <c r="AK4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="5">
+      <c r="AK4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="11">
         <v>2010</v>
       </c>
-      <c r="AR4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="5">
+      <c r="AR4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="11">
+        <v>2010</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2020</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.7843735659144511</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1.6233429686736114</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1.5710633132366996</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>1.5163437251848346</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1.5787152033509375</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>2020</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>5.2067579012904376E-5</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>5.721627285754094E-5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>5.4785749088437362E-5</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>5.498344685833656E-5</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>5.6463447417953724E-5</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>2020</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>1.0611744876667383E-4</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>1.1669901176454278E-4</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>1.1171885983670692E-4</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>1.1218856764353414E-4</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>1.1535993649279819E-4</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="11">
         <v>2020</v>
       </c>
-      <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="5">
+      <c r="W5" s="6">
+        <v>0</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="11">
         <v>2020</v>
       </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="5">
+      <c r="AD5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="11">
         <v>2020</v>
       </c>
-      <c r="AK5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="5">
+      <c r="AK5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="11">
         <v>2020</v>
       </c>
-      <c r="AR5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="5">
+      <c r="AR5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="11">
+        <v>2020</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>2030</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1.9329867404498482</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1.7795031338082046</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1.6574722726672428</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>1.5938340216049549</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1.6217311036311131</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="11">
         <v>2030</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>2.0917974425405107E-5</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <v>2.285234186935048E-5</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>2.2115698221480962E-5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <v>2.2391804344024101E-5</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="6">
         <v>2.3499328860110415E-5</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="6">
         <v>2030</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="6">
         <v>4.9934655373973237E-5</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="6">
         <v>5.4552233723192955E-5</v>
       </c>
-      <c r="R6" s="5">
+      <c r="R6" s="6">
         <v>5.2793776271575775E-5</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="6">
         <v>5.3452876842829955E-5</v>
       </c>
-      <c r="T6" s="5">
+      <c r="T6" s="6">
         <v>5.6096674777950109E-5</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="11">
         <v>2030</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="6">
         <v>1.0187531800094351E-4</v>
       </c>
-      <c r="X6" s="5">
+      <c r="X6" s="6">
         <v>1.1117880846477357E-4</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="6">
         <v>1.0772491324592126E-4</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="6">
         <v>1.091292906720831E-4</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AA6" s="6">
         <v>1.1469740477118017E-4</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="11">
         <v>2030</v>
       </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="5">
+      <c r="AD6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="11">
         <v>2030</v>
       </c>
-      <c r="AK6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="5">
+      <c r="AK6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="11">
         <v>2030</v>
       </c>
-      <c r="AR6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="5">
+      <c r="AR6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="11">
+        <v>2030</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2040</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2.0720385924384681</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>1.9606469332553778</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1.7454922091980747</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>1.6626843172525982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1.6501311844539372</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="11">
         <v>2040</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>8.5149018416164068E-6</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>9.07312793811954E-6</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>9.0008129579488554E-6</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>9.1925337128873068E-6</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>9.9158954394384932E-6</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="6">
         <v>2040</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="6">
         <v>2.0326565154138442E-5</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="6">
         <v>2.1659140317376036E-5</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="6">
         <v>2.1486513282309438E-5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="6">
         <v>2.1944181442989931E-5</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="6">
         <v>2.3670960103205908E-5</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="11">
         <v>2040</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="6">
         <v>4.8522883533874685E-5</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="6">
         <v>5.1703913081957431E-5</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="6">
         <v>5.1291832343958176E-5</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="Z7" s="6">
         <v>5.2384345480627205E-5</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="6">
         <v>5.650638004875974E-5</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="11">
         <v>2040</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="6">
         <v>9.9067488064230597E-5</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="6">
         <v>1.0537064721901634E-4</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AF7" s="6">
         <v>1.0470839843511604E-4</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AG7" s="6">
         <v>1.0700011930179221E-4</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AH7" s="6">
         <v>1.1563265666643119E-4</v>
       </c>
-      <c r="AJ7" s="5">
+      <c r="AJ7" s="11">
         <v>2040</v>
       </c>
-      <c r="AK7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="5">
+      <c r="AK7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="11">
         <v>2040</v>
       </c>
-      <c r="AR7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="5">
+      <c r="AR7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AY7" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>2050</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2.2095729444184178</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>2.1105650661445612</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1.7998906561527757</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>1.6799436652206543</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1.6216083299244177</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="11">
         <v>2050</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>3.4997863086028145E-6</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <v>3.6342754116347465E-6</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>3.6880605563727186E-6</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <v>3.7954700520259621E-6</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="6">
         <v>4.2129838811133521E-6</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="6">
         <v>2050</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="6">
         <v>8.3546186105287738E-6</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="6">
         <v>8.6756674607224589E-6</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="6">
         <v>8.8040619751650333E-6</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="6">
         <v>9.0604670467286923E-6</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="6">
         <v>1.0057144397856987E-5</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="11">
         <v>2050</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="6">
         <v>1.9943943084177462E-5</v>
       </c>
-      <c r="X8" s="5">
+      <c r="X8" s="6">
         <v>2.0710338567098141E-5</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="6">
         <v>2.1016837206877524E-5</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="6">
         <v>2.1628917250449132E-5</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AA8" s="6">
         <v>2.400814326002365E-5</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AC8" s="11">
         <v>2050</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AD8" s="6">
         <v>4.760951332996033E-5</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="6">
         <v>4.9439001036377661E-5</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AF8" s="6">
         <v>5.0170655019177166E-5</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="6">
         <v>5.1631769619997493E-5</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="6">
         <v>5.7311275680482776E-5</v>
       </c>
-      <c r="AJ8" s="5">
+      <c r="AJ8" s="11">
         <v>2050</v>
       </c>
-      <c r="AK8" s="5">
+      <c r="AK8" s="6">
         <v>9.7254622202447294E-5</v>
       </c>
-      <c r="AL8" s="5">
+      <c r="AL8" s="6">
         <v>1.0084673308461412E-4</v>
       </c>
-      <c r="AM8" s="5">
+      <c r="AM8" s="6">
         <v>1.0246507368465441E-4</v>
       </c>
-      <c r="AN8" s="5">
+      <c r="AN8" s="6">
         <v>1.0547672649441342E-4</v>
       </c>
-      <c r="AO8" s="5">
+      <c r="AO8" s="6">
         <v>1.1729308056250831E-4</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AQ8" s="11">
         <v>2050</v>
       </c>
-      <c r="AR8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="5">
+      <c r="AR8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AY8" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>2060</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2.3422009667429986</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>2.2343657233593381</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1.8198375956558956</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1.6996965164569382</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>1.5892640563623732</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="11">
         <v>2060</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>1.0221136694577026E-6</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <v>1.0480230935638878E-6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>1.078259285092198E-6</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <v>1.0964111575195723E-6</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="6">
         <v>1.2655265618055634E-6</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="6">
         <v>2060</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="6">
         <v>2.4399708278721734E-6</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="6">
         <v>2.5018212790772766E-6</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="6">
         <v>2.5740004969687647E-6</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="6">
         <v>2.6173322590306026E-6</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="6">
         <v>3.0210409957986963E-6</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="11">
         <v>2060</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="6">
         <v>5.8246499954339725E-6</v>
       </c>
-      <c r="X9" s="5">
+      <c r="X9" s="6">
         <v>5.9722978982712506E-6</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="6">
         <v>6.1446023693068064E-6</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="Z9" s="6">
         <v>6.2480427991451485E-6</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AA9" s="6">
         <v>7.2117658661274842E-6</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AC9" s="11">
         <v>2060</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AD9" s="6">
         <v>1.3904470839465333E-5</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="6">
         <v>1.425693099490477E-5</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AF9" s="6">
         <v>1.4668250413296668E-5</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AG9" s="6">
         <v>1.4915179359598075E-5</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AH9" s="6">
         <v>1.7215743121912208E-5</v>
       </c>
-      <c r="AJ9" s="5">
+      <c r="AJ9" s="11">
         <v>2060</v>
       </c>
-      <c r="AK9" s="5">
+      <c r="AK9" s="6">
         <v>3.3192330221087918E-5</v>
       </c>
-      <c r="AL9" s="5">
+      <c r="AL9" s="6">
         <v>3.4033703667502024E-5</v>
       </c>
-      <c r="AM9" s="5">
+      <c r="AM9" s="6">
         <v>3.5015582275055303E-5</v>
       </c>
-      <c r="AN9" s="5">
+      <c r="AN9" s="6">
         <v>3.5605034008273637E-5</v>
       </c>
-      <c r="AO9" s="5">
+      <c r="AO9" s="6">
         <v>4.1096791080202919E-5</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AQ9" s="11">
         <v>2060</v>
       </c>
-      <c r="AR9" s="5">
-        <v>7.1155643087639217E-5</v>
-      </c>
-      <c r="AS9" s="5">
-        <v>7.2944555823906132E-5</v>
-      </c>
-      <c r="AT9" s="5">
-        <v>7.508513712286557E-5</v>
-      </c>
-      <c r="AU9" s="5">
-        <v>7.6260473212275143E-5</v>
-      </c>
-      <c r="AV9" s="5">
-        <v>8.8229397874300955E-5</v>
+      <c r="AR9" s="6">
+        <v>7.4900676934357071E-5</v>
+      </c>
+      <c r="AS9" s="6">
+        <v>7.6783742972532767E-5</v>
+      </c>
+      <c r="AT9" s="6">
+        <v>7.9036986445121652E-5</v>
+      </c>
+      <c r="AU9" s="6">
+        <v>8.0274182328710666E-5</v>
+      </c>
+      <c r="AV9" s="6">
+        <v>9.2873050394001001E-5</v>
+      </c>
+      <c r="AX9" s="11">
+        <v>2060</v>
+      </c>
+      <c r="AY9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>2080</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2.578038516216103</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>2.3682943165486976</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>1.8563491953817044</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>1.7672479890224206</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1.5218532377042528</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="11">
         <v>2080</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>1.7309728932435321E-7</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <v>1.8130964184459587E-7</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>1.876207298967536E-7</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>1.8273038271399145E-7</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>2.2398807370538342E-7</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="6">
         <v>2080</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="6">
         <v>4.1321478022604552E-7</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="6">
         <v>4.3281916072279715E-7</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="6">
         <v>4.4788487565394772E-7</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="6">
         <v>4.3621072632893386E-7</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="6">
         <v>5.3470033739011489E-7</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="11">
         <v>2080</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="6">
         <v>9.8641890928785618E-7</v>
       </c>
-      <c r="X10" s="5">
+      <c r="X10" s="6">
         <v>1.0332181213490444E-6</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="6">
         <v>1.0691827136755093E-6</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="6">
         <v>1.0413144012066944E-6</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AA10" s="6">
         <v>1.2764269296805519E-6</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="11">
         <v>2080</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="6">
         <v>2.3547610134233566E-6</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="6">
         <v>2.4664791564932288E-6</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="6">
         <v>2.5523330970500522E-6</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AG10" s="6">
         <v>2.485806416263614E-6</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AH10" s="6">
         <v>3.0470621126155175E-6</v>
       </c>
-      <c r="AJ10" s="5">
+      <c r="AJ10" s="11">
         <v>2080</v>
       </c>
-      <c r="AK10" s="5">
+      <c r="AK10" s="6">
         <v>5.6212391342458364E-6</v>
       </c>
-      <c r="AL10" s="5">
+      <c r="AL10" s="6">
         <v>5.8879300751879523E-6</v>
       </c>
-      <c r="AM10" s="5">
+      <c r="AM10" s="6">
         <v>6.092878512942157E-6</v>
       </c>
-      <c r="AN10" s="5">
+      <c r="AN10" s="6">
         <v>5.9340675630292775E-6</v>
       </c>
-      <c r="AO10" s="5">
+      <c r="AO10" s="6">
         <v>7.2738827379847938E-6</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AQ10" s="11">
         <v>2080</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AR10" s="6">
         <v>1.3418894915573354E-5</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AS10" s="6">
         <v>1.4055531157619593E-5</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AT10" s="6">
         <v>1.4544777158365107E-5</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="AU10" s="6">
         <v>1.4165668575349955E-5</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="AV10" s="6">
         <v>1.7364025824845309E-5</v>
       </c>
+      <c r="AX10" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AY10" s="6">
+        <v>5.471923281495889E-5</v>
+      </c>
+      <c r="AZ10" s="6">
+        <v>5.6681091609879643E-5</v>
+      </c>
+      <c r="BA10" s="6">
+        <v>5.8551348865504094E-5</v>
+      </c>
+      <c r="BB10" s="6">
+        <v>5.8011905950829259E-5</v>
+      </c>
+      <c r="BC10" s="6">
+        <v>6.9601545843651487E-5</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>2100</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="11">
         <v>2100</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>7.1498296594363356E-9</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="6">
         <v>7.6977501883845895E-9</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>7.9669269359428085E-9</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="6">
         <v>7.5175087799195244E-9</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="6">
         <v>9.5421117107807868E-9</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="6">
         <v>2100</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="6">
         <v>1.7067946826987423E-8</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="6">
         <v>1.8375934200953737E-8</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="6">
         <v>1.9018507284584983E-8</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="6">
         <v>1.7945664638752134E-8</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="6">
         <v>2.2778760458974644E-8</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="11">
         <v>2100</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>4.0744301488260248E-8</v>
       </c>
-      <c r="X11" s="5">
+      <c r="X11" s="6">
         <v>4.3866706540551801E-8</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="6">
         <v>4.5400644714810313E-8</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="Z11" s="6">
         <v>4.2839574114772463E-8</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="6">
         <v>5.4377054041765403E-8</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="11">
         <v>2100</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="6">
         <v>9.7264074743197422E-8</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="6">
         <v>1.0471782509791083E-7</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AF11" s="6">
         <v>1.0837961399445817E-7</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AG11" s="6">
         <v>1.0226587247030849E-7</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AH11" s="6">
         <v>1.2980793571037985E-7</v>
       </c>
-      <c r="AJ11" s="5">
+      <c r="AJ11" s="11">
         <v>2100</v>
       </c>
-      <c r="AK11" s="5">
+      <c r="AK11" s="6">
         <v>2.3218706059813244E-7</v>
       </c>
-      <c r="AL11" s="5">
+      <c r="AL11" s="6">
         <v>2.4998051683100543E-7</v>
       </c>
-      <c r="AM11" s="5">
+      <c r="AM11" s="6">
         <v>2.5872187035647089E-7</v>
       </c>
-      <c r="AN11" s="5">
+      <c r="AN11" s="6">
         <v>2.441272604469802E-7</v>
       </c>
-      <c r="AO11" s="5">
+      <c r="AO11" s="6">
         <v>3.0987515622915573E-7</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AQ11" s="11">
         <v>2100</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AR11" s="6">
         <v>5.4923995536082519E-7</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AS11" s="6">
         <v>5.9687074613901105E-7</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AT11" s="6">
         <v>6.1714408356783323E-7</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AU11" s="6">
         <v>5.7665128834427647E-7</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="AV11" s="6">
         <v>7.3930841433478277E-7</v>
       </c>
+      <c r="AX11" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AY11" s="6">
+        <v>1.3111350528705046E-6</v>
+      </c>
+      <c r="AZ11" s="6">
+        <v>1.424838205685841E-6</v>
+      </c>
+      <c r="BA11" s="6">
+        <v>1.4732342423928734E-6</v>
+      </c>
+      <c r="BB11" s="6">
+        <v>1.3765707661872461E-6</v>
+      </c>
+      <c r="BC11" s="6">
+        <v>1.7648619033794333E-6</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>2200</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="11">
         <v>2200</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>1.1901346574916261E-12</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="6">
         <v>1.280473505005375E-12</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>1.3258860676046425E-12</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="6">
         <v>1.2504641766497571E-12</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="6">
         <v>1.5882750670215273E-12</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="6">
         <v>2200</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="6">
         <v>2.8402014073947155E-12</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="6">
         <v>3.0572877562917709E-12</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="6">
         <v>3.1647973131043726E-12</v>
       </c>
-      <c r="S12" s="5">
+      <c r="S12" s="6">
         <v>2.9853164384974207E-12</v>
       </c>
-      <c r="T12" s="5">
+      <c r="T12" s="6">
         <v>3.7907721406327253E-12</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="11">
         <v>2200</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="6">
         <v>6.7792127467214415E-12</v>
       </c>
-      <c r="X12" s="5">
+      <c r="X12" s="6">
         <v>7.2988681765195907E-12</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="6">
         <v>7.554628034256438E-12</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="6">
         <v>7.1267858281487403E-12</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="6">
         <v>9.0485707815446402E-12</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="11">
         <v>2200</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="6">
         <v>1.6182393203223456E-11</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="6">
         <v>1.7424326426151993E-11</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AF12" s="6">
         <v>1.8033987636556503E-11</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AG12" s="6">
         <v>1.7013268571730577E-11</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AH12" s="6">
         <v>2.159988299332838E-11</v>
       </c>
-      <c r="AJ12" s="5">
+      <c r="AJ12" s="11">
         <v>2200</v>
       </c>
-      <c r="AK12" s="5">
+      <c r="AK12" s="6">
         <v>3.8629519583111008E-11</v>
       </c>
-      <c r="AL12" s="5">
+      <c r="AL12" s="6">
         <v>4.1595649147296852E-11</v>
       </c>
-      <c r="AM12" s="5">
+      <c r="AM12" s="6">
         <v>4.3050105702491238E-11</v>
       </c>
-      <c r="AN12" s="5">
+      <c r="AN12" s="6">
         <v>4.0614143159700688E-11</v>
       </c>
-      <c r="AO12" s="5">
+      <c r="AO12" s="6">
         <v>5.1562142333594351E-11</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AQ12" s="11">
         <v>2200</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AR12" s="6">
         <v>9.0322458401459472E-11</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AS12" s="6">
         <v>9.9343540060914399E-11</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AT12" s="6">
         <v>1.0258888849534743E-10</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AU12" s="6">
         <v>9.4655263627174685E-11</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AV12" s="6">
         <v>1.2292778128752957E-10</v>
       </c>
+      <c r="AX12" s="11">
+        <v>2200</v>
+      </c>
+      <c r="AY12" s="6">
+        <v>2.1561609386822057E-10</v>
+      </c>
+      <c r="AZ12" s="6">
+        <v>2.3715101438170904E-10</v>
+      </c>
+      <c r="BA12" s="6">
+        <v>2.4489810623862241E-10</v>
+      </c>
+      <c r="BB12" s="6">
+        <v>2.2595932680502528E-10</v>
+      </c>
+      <c r="BC12" s="6">
+        <v>2.9345092023014276E-10</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>2300</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="11">
         <v>2300</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>2.4424906541753444E-15</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="6">
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <v>2.2204460492503131E-15</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="6">
         <v>1.5543122344752192E-15</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="6">
         <v>2.886579864025407E-15</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="6">
         <v>2300</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="6">
         <v>4.6629367034256575E-15</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="6">
         <v>3.7747582837255322E-15</v>
       </c>
-      <c r="R13" s="5">
+      <c r="R13" s="6">
         <v>4.6629367034256575E-15</v>
       </c>
-      <c r="S13" s="5">
+      <c r="S13" s="6">
         <v>4.2188474935755949E-15</v>
       </c>
-      <c r="T13" s="5">
+      <c r="T13" s="6">
         <v>5.440092820663267E-15</v>
       </c>
-      <c r="V13" s="5">
+      <c r="V13" s="11">
         <v>2300</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="6">
         <v>9.7699626167013776E-15</v>
       </c>
-      <c r="X13" s="5">
+      <c r="X13" s="6">
         <v>9.7699626167013776E-15</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="6">
         <v>1.0436096431476471E-14</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="Z13" s="6">
         <v>9.3258734068513149E-15</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AA13" s="6">
         <v>1.3211653993039363E-14</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AC13" s="11">
         <v>2300</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="6">
         <v>2.3092638912203256E-14</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="6">
         <v>2.375877272697835E-14</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AF13" s="6">
         <v>2.5091040356528538E-14</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AG13" s="6">
         <v>2.3536728122053319E-14</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AH13" s="6">
         <v>3.0642155479654321E-14</v>
       </c>
-      <c r="AJ13" s="5">
+      <c r="AJ13" s="11">
         <v>2300</v>
       </c>
-      <c r="AK13" s="5">
+      <c r="AK13" s="6">
         <v>5.3956838996782608E-14</v>
       </c>
-      <c r="AL13" s="5">
+      <c r="AL13" s="6">
         <v>5.7287508070658077E-14</v>
       </c>
-      <c r="AM13" s="5">
+      <c r="AM13" s="6">
         <v>5.9729998724833422E-14</v>
       </c>
-      <c r="AN13" s="5">
+      <c r="AN13" s="6">
         <v>5.595524044110789E-14</v>
       </c>
-      <c r="AO13" s="5">
+      <c r="AO13" s="6">
         <v>7.2053474298172659E-14</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AQ13" s="11">
         <v>2300</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AR13" s="6">
         <v>1.2501111257279263E-13</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AS13" s="6">
         <v>1.3788969965844444E-13</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AT13" s="6">
         <v>1.4233059175694507E-13</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AU13" s="6">
         <v>1.3145040611561853E-13</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AV13" s="6">
         <v>1.7053025658242404E-13</v>
       </c>
+      <c r="AX13" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AY13" s="6">
+        <v>2.9909408283401717E-13</v>
+      </c>
+      <c r="AZ13" s="6">
+        <v>3.2884805989397137E-13</v>
+      </c>
+      <c r="BA13" s="6">
+        <v>3.397282455352979E-13</v>
+      </c>
+      <c r="BB13" s="6">
+        <v>3.1308289294429414E-13</v>
+      </c>
+      <c r="BC13" s="6">
+        <v>4.0700776082758239E-13</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AJ16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AQ16" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="AX16" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4" t="s">
+      <c r="N17" s="4"/>
+      <c r="O17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="P17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="Q17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="R17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="4" t="s">
+      <c r="U17" s="4"/>
+      <c r="V17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X17" s="4" t="s">
+      <c r="X17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z17" s="4" t="s">
+      <c r="Z17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA17" s="4" t="s">
+      <c r="AA17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="4" t="s">
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AD17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE17" s="4" t="s">
+      <c r="AE17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AF17" s="4" t="s">
+      <c r="AF17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AG17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AH17" s="4" t="s">
+      <c r="AH17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="4" t="s">
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AK17" s="4" t="s">
+      <c r="AK17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AL17" s="4" t="s">
+      <c r="AL17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AM17" s="4" t="s">
+      <c r="AM17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AN17" s="4" t="s">
+      <c r="AN17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AO17" s="4" t="s">
+      <c r="AO17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="AQ17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AR17" s="4" t="s">
+      <c r="AR17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AS17" s="4" t="s">
+      <c r="AS17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AT17" s="4" t="s">
+      <c r="AT17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AU17" s="4" t="s">
+      <c r="AU17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AV17" s="4" t="s">
+      <c r="AV17" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="AX17" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC17" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>2010</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>1.6860518091291867</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>1.5273282207505336</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>1.502102849476743</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>1.4667586601902891</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>1.5422163221009639</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="11">
         <v>2010</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>3.9871896409938713E-4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <v>3.9656968199514866E-4</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>3.9629005173047184E-4</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <v>3.9636858656021123E-4</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="6">
         <v>3.9731683108497616E-4</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="6">
         <v>2010</v>
       </c>
-      <c r="P18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18" s="5">
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
         <v>2010</v>
       </c>
-      <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="5">
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="11">
         <v>2010</v>
       </c>
-      <c r="AD18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="5">
+      <c r="AD18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="11">
         <v>2010</v>
       </c>
-      <c r="AK18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="5">
+      <c r="AK18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="11">
         <v>2010</v>
       </c>
-      <c r="AR18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="5">
+      <c r="AR18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="11">
+        <v>2010</v>
+      </c>
+      <c r="AY18" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
         <v>2020</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>1.7843735659144511</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>1.6233429686736114</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>1.5710633132366996</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>1.5163437251848346</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>1.5787152033509375</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="11">
         <v>2020</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>3.6496727091239468E-4</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="6">
         <v>3.6065303863354602E-4</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <v>3.5983998917837043E-4</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="6">
         <v>3.6059055654337203E-4</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="6">
         <v>3.6250058036297049E-4</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="6">
         <v>2020</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="6">
         <v>3.5693791592550649E-4</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="6">
         <v>3.5257502854696421E-4</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="6">
         <v>3.5174623698357442E-4</v>
       </c>
-      <c r="S19" s="5">
+      <c r="S19" s="6">
         <v>3.5253088342218907E-4</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="6">
         <v>3.5446010874002899E-4</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="11">
         <v>2020</v>
       </c>
-      <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="5">
+      <c r="W19" s="6">
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="11">
         <v>2020</v>
       </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="5">
+      <c r="AD19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="11">
         <v>2020</v>
       </c>
-      <c r="AK19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="5">
+      <c r="AK19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
         <v>2020</v>
       </c>
-      <c r="AR19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="5">
+      <c r="AR19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>2020</v>
+      </c>
+      <c r="AY19" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>2030</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>1.9329867404498482</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>1.7795031338082046</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>1.6574722726672428</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <v>1.5938340216049549</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>1.6217311036311131</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="11">
         <v>2030</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>3.3098534665244872E-4</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <v>3.2411868188123028E-4</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <v>3.2312280397759908E-4</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <v>3.2501182815890538E-4</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="6">
         <v>3.2763444359284745E-4</v>
       </c>
-      <c r="O20" s="5">
+      <c r="O20" s="6">
         <v>2030</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20" s="6">
         <v>3.6146780066734772E-4</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="Q20" s="6">
         <v>3.5396884961940155E-4</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="6">
         <v>3.5288127029517999E-4</v>
       </c>
-      <c r="S20" s="5">
+      <c r="S20" s="6">
         <v>3.5494423791973263E-4</v>
       </c>
-      <c r="T20" s="5">
+      <c r="T20" s="6">
         <v>3.578083455716641E-4</v>
       </c>
-      <c r="V20" s="5">
+      <c r="V20" s="11">
         <v>2030</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="6">
         <v>3.5352749257326621E-4</v>
       </c>
-      <c r="X20" s="5">
+      <c r="X20" s="6">
         <v>3.4601860862810139E-4</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Y20" s="6">
         <v>3.4495271023224361E-4</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="6">
         <v>3.4704530611927021E-4</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AA20" s="6">
         <v>3.4988903611879728E-4</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC20" s="11">
         <v>2030</v>
       </c>
-      <c r="AD20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="5">
+      <c r="AD20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="11">
         <v>2030</v>
       </c>
-      <c r="AK20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="5">
+      <c r="AK20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="11">
         <v>2030</v>
       </c>
-      <c r="AR20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="5">
+      <c r="AR20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="11">
+        <v>2030</v>
+      </c>
+      <c r="AY20" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>2040</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>2.0720385924384681</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>1.9606469332553778</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>1.7454922091980747</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <v>1.6626843172525982</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>1.6501311844539372</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="11">
         <v>2040</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>3.0037824288828009E-4</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <v>2.9099512665133889E-4</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <v>2.9037729055628181E-4</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <v>2.9345741643285739E-4</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="6">
         <v>2.9641298580351252E-4</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="6">
         <v>2040</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="6">
         <v>3.2804214750371266E-4</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="6">
         <v>3.177950046801714E-4</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="6">
         <v>3.1712027601671355E-4</v>
       </c>
-      <c r="S21" s="5">
+      <c r="S21" s="6">
         <v>3.2048403118564717E-4</v>
       </c>
-      <c r="T21" s="5">
+      <c r="T21" s="6">
         <v>3.2371175880767654E-4</v>
       </c>
-      <c r="V21" s="5">
+      <c r="V21" s="11">
         <v>2040</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="6">
         <v>3.5825359130286507E-4</v>
       </c>
-      <c r="X21" s="5">
+      <c r="X21" s="6">
         <v>3.4706287952631086E-4</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Y21" s="6">
         <v>3.4632602070316378E-4</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="Z21" s="6">
         <v>3.4999951643061022E-4</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AA21" s="6">
         <v>3.5352445725813085E-4</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AC21" s="11">
         <v>2040</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AD21" s="6">
         <v>3.503969468211382E-4</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="6">
         <v>3.3925616079252818E-4</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AF21" s="6">
         <v>3.3856131875614206E-4</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AG21" s="6">
         <v>3.4223997827419471E-4</v>
       </c>
-      <c r="AH21" s="5">
+      <c r="AH21" s="6">
         <v>3.4571865880568265E-4</v>
       </c>
-      <c r="AJ21" s="5">
+      <c r="AJ21" s="11">
         <v>2040</v>
       </c>
-      <c r="AK21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="5">
+      <c r="AK21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="11">
         <v>2040</v>
       </c>
-      <c r="AR21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="5">
+      <c r="AR21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AY21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <v>2050</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>2.2095729444184178</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>2.1105650661445612</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>1.7998906561527757</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>1.6799436652206543</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>1.6216083299244177</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="11">
         <v>2050</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>2.7279485106567749E-4</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <v>2.6147040528378128E-4</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <v>2.6125357715637844E-4</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="6">
         <v>2.6536887102296403E-4</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>2.6851790418629953E-4</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="6">
         <v>2050</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="6">
         <v>2.9791860845212461E-4</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="6">
         <v>2.8555134682995976E-4</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="6">
         <v>2.853145518700251E-4</v>
       </c>
-      <c r="S22" s="5">
+      <c r="S22" s="6">
         <v>2.8980880636344521E-4</v>
       </c>
-      <c r="T22" s="5">
+      <c r="T22" s="6">
         <v>2.9324781947963064E-4</v>
       </c>
-      <c r="V22" s="5">
+      <c r="V22" s="11">
         <v>2050</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="6">
         <v>3.2535602366809413E-4</v>
       </c>
-      <c r="X22" s="5">
+      <c r="X22" s="6">
         <v>3.1184993955809539E-4</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Y22" s="6">
         <v>3.115913394972747E-4</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="6">
         <v>3.164994439903146E-4</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AA22" s="6">
         <v>3.2025513402074711E-4</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AC22" s="11">
         <v>2050</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AD22" s="6">
         <v>3.5532012770422285E-4</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="6">
         <v>3.4057037975444572E-4</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AF22" s="6">
         <v>3.4028796715860341E-4</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AG22" s="6">
         <v>3.4564802169062547E-4</v>
       </c>
-      <c r="AH22" s="5">
+      <c r="AH22" s="6">
         <v>3.4974954229957667E-4</v>
       </c>
-      <c r="AJ22" s="5">
+      <c r="AJ22" s="11">
         <v>2050</v>
       </c>
-      <c r="AK22" s="5">
+      <c r="AK22" s="6">
         <v>3.4754041967444691E-4</v>
       </c>
-      <c r="AL22" s="5">
+      <c r="AL22" s="6">
         <v>3.3294013018674853E-4</v>
       </c>
-      <c r="AM22" s="5">
+      <c r="AM22" s="6">
         <v>3.3268072533268467E-4</v>
       </c>
-      <c r="AN22" s="5">
+      <c r="AN22" s="6">
         <v>3.3801010851538529E-4</v>
       </c>
-      <c r="AO22" s="5">
+      <c r="AO22" s="6">
         <v>3.4205293054798136E-4</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="11">
         <v>2050</v>
       </c>
-      <c r="AR22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="5">
+      <c r="AR22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="11">
+        <v>2050</v>
+      </c>
+      <c r="AY22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>2060</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>2.3422009667429986</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>2.2343657233593381</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>1.8198375956558956</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <v>1.6996965164569382</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>1.5892640563623732</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="11">
         <v>2060</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>2.3667018339902369E-4</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="6">
         <v>2.2454102039115852E-4</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <v>2.2389499077428432E-4</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="6">
         <v>2.2905626856006001E-4</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="6">
         <v>2.325750176206287E-4</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="6">
         <v>2060</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="6">
         <v>2.5846716216902101E-4</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="Q23" s="6">
         <v>2.4522104671756141E-4</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="6">
         <v>2.4451552450402149E-4</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23" s="6">
         <v>2.5015209815058836E-4</v>
       </c>
-      <c r="T23" s="5">
+      <c r="T23" s="6">
         <v>2.539948824734267E-4</v>
       </c>
-      <c r="V23" s="5">
+      <c r="V23" s="11">
         <v>2060</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="6">
         <v>2.8227147615171865E-4</v>
       </c>
-      <c r="X23" s="5">
+      <c r="X23" s="6">
         <v>2.6780556970246449E-4</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Y23" s="6">
         <v>2.6703507719410825E-4</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="Z23" s="6">
         <v>2.7319070812985568E-4</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AA23" s="6">
         <v>2.773873618748063E-4</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC23" s="11">
         <v>2060</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AD23" s="6">
         <v>3.0826795962669016E-4</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AE23" s="6">
         <v>2.9246995897927176E-4</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AF23" s="6">
         <v>2.9162851430821201E-4</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AG23" s="6">
         <v>2.9835099162067171E-4</v>
       </c>
-      <c r="AH23" s="5">
+      <c r="AH23" s="6">
         <v>3.0293409470999731E-4</v>
       </c>
-      <c r="AJ23" s="5">
+      <c r="AJ23" s="11">
         <v>2060</v>
       </c>
-      <c r="AK23" s="5">
+      <c r="AK23" s="6">
         <v>3.3665846130474244E-4</v>
       </c>
-      <c r="AL23" s="5">
+      <c r="AL23" s="6">
         <v>3.1940572826714975E-4</v>
       </c>
-      <c r="AM23" s="5">
+      <c r="AM23" s="6">
         <v>3.1848679902962972E-4</v>
       </c>
-      <c r="AN23" s="5">
+      <c r="AN23" s="6">
         <v>3.2582830986476461E-4</v>
       </c>
-      <c r="AO23" s="5">
+      <c r="AO23" s="6">
         <v>3.3083344047559751E-4</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AQ23" s="11">
         <v>2060</v>
       </c>
-      <c r="AR23" s="5">
-        <v>3.4756994042368374E-4</v>
-      </c>
-      <c r="AS23" s="5">
-        <v>3.2965924978970161E-4</v>
-      </c>
-      <c r="AT23" s="5">
-        <v>3.2867020376360357E-4</v>
-      </c>
-      <c r="AU23" s="5">
-        <v>3.3633103433914903E-4</v>
-      </c>
-      <c r="AV23" s="5">
-        <v>3.4154397442547058E-4</v>
+      <c r="AR23" s="6">
+        <v>3.6586309518282496E-4</v>
+      </c>
+      <c r="AS23" s="6">
+        <v>3.4700973662073854E-4</v>
+      </c>
+      <c r="AT23" s="6">
+        <v>3.4596863554063536E-4</v>
+      </c>
+      <c r="AU23" s="6">
+        <v>3.5403266772542004E-4</v>
+      </c>
+      <c r="AV23" s="6">
+        <v>3.5951997307944269E-4</v>
+      </c>
+      <c r="AX23" s="11">
+        <v>2060</v>
+      </c>
+      <c r="AY23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="6">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
         <v>2080</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>2.578038516216103</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>2.3682943165486976</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>1.8563491953817044</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>1.7672479890224206</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>1.5218532377042528</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="11">
         <v>2080</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>1.9595954304535423E-4</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <v>1.852392624683008E-4</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <v>1.828976186030673E-4</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <v>1.8860078194105068E-4</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="6">
         <v>1.9279039063719862E-4</v>
       </c>
-      <c r="O24" s="5">
+      <c r="O24" s="6">
         <v>2080</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="6">
         <v>2.1400733347189948E-4</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="Q24" s="6">
         <v>2.0229981053549728E-4</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="6">
         <v>1.9974251956742794E-4</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24" s="6">
         <v>2.0597089743352171E-4</v>
       </c>
-      <c r="T24" s="5">
+      <c r="T24" s="6">
         <v>2.1054633206775143E-4</v>
       </c>
-      <c r="V24" s="5">
+      <c r="V24" s="11">
         <v>2080</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" s="6">
         <v>2.3371722647683169E-4</v>
       </c>
-      <c r="X24" s="5">
+      <c r="X24" s="6">
         <v>2.2093155908642915E-4</v>
       </c>
-      <c r="Y24" s="5">
+      <c r="Y24" s="6">
         <v>2.1813876443269875E-4</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" s="6">
         <v>2.2494071765661317E-4</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AA24" s="6">
         <v>2.2993750389206646E-4</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="11">
         <v>2080</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AD24" s="6">
         <v>2.5524227502352612E-4</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" s="6">
         <v>2.4127919383554463E-4</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AF24" s="6">
         <v>2.3822921108165586E-4</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AG24" s="6">
         <v>2.456575520992432E-4</v>
       </c>
-      <c r="AH24" s="5">
+      <c r="AH24" s="6">
         <v>2.5111448563807092E-4</v>
       </c>
-      <c r="AJ24" s="5">
+      <c r="AJ24" s="11">
         <v>2080</v>
       </c>
-      <c r="AK24" s="5">
+      <c r="AK24" s="6">
         <v>2.7874962240662381E-4</v>
       </c>
-      <c r="AL24" s="5">
+      <c r="AL24" s="6">
         <v>2.6350072117447274E-4</v>
       </c>
-      <c r="AM24" s="5">
+      <c r="AM24" s="6">
         <v>2.6016986992665467E-4</v>
       </c>
-      <c r="AN24" s="5">
+      <c r="AN24" s="6">
         <v>2.6828227228910538E-4</v>
       </c>
-      <c r="AO24" s="5">
+      <c r="AO24" s="6">
         <v>2.7424171966061451E-4</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AQ24" s="11">
         <v>2080</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AR24" s="6">
         <v>3.0442179878799878E-4</v>
       </c>
-      <c r="AS24" s="5">
+      <c r="AS24" s="6">
         <v>2.8776869401197781E-4</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AT24" s="6">
         <v>2.8413111429783646E-4</v>
       </c>
-      <c r="AU24" s="5">
+      <c r="AU24" s="6">
         <v>2.9299055979585542E-4</v>
       </c>
-      <c r="AV24" s="5">
+      <c r="AV24" s="6">
         <v>2.9949878678081908E-4</v>
       </c>
+      <c r="AX24" s="11">
+        <v>2080</v>
+      </c>
+      <c r="AY24" s="6">
+        <v>3.4740484218840657E-4</v>
+      </c>
+      <c r="AZ24" s="6">
+        <v>3.2851910901517074E-4</v>
+      </c>
+      <c r="BA24" s="6">
+        <v>3.2525707984211211E-4</v>
+      </c>
+      <c r="BB24" s="6">
+        <v>3.3479389866961946E-4</v>
+      </c>
+      <c r="BC24" s="6">
+        <v>3.4163584885728629E-4</v>
+      </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>2100</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="11">
         <v>2100</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>1.1837692983520499E-4</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <v>1.1211270104714843E-4</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <v>1.0977110147188995E-4</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="6">
         <v>1.1360155511033754E-4</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="6">
         <v>1.1665821115624752E-4</v>
       </c>
-      <c r="O25" s="5">
+      <c r="O25" s="6">
         <v>2100</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="6">
         <v>1.2927959369181451E-4</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="Q25" s="6">
         <v>1.2243845547666666E-4</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="6">
         <v>1.1988120289455839E-4</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25" s="6">
         <v>1.240644273111524E-4</v>
       </c>
-      <c r="T25" s="5">
+      <c r="T25" s="6">
         <v>1.2740258872880717E-4</v>
       </c>
-      <c r="V25" s="5">
+      <c r="V25" s="11">
         <v>2100</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="6">
         <v>1.4118637148300973E-4</v>
       </c>
-      <c r="X25" s="5">
+      <c r="X25" s="6">
         <v>1.3371519814864174E-4</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Y25" s="6">
         <v>1.3092243350945498E-4</v>
       </c>
-      <c r="Z25" s="5">
+      <c r="Z25" s="6">
         <v>1.3549091457735918E-4</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AA25" s="6">
         <v>1.3913650428029834E-4</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AC25" s="11">
         <v>2100</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AD25" s="6">
         <v>1.541897333706499E-4</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AE25" s="6">
         <v>1.4603050806924033E-4</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AF25" s="6">
         <v>1.4298054389400017E-4</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AG25" s="6">
         <v>1.4796975845286721E-4</v>
       </c>
-      <c r="AH25" s="5">
+      <c r="AH25" s="6">
         <v>1.5195108602062747E-4</v>
       </c>
-      <c r="AJ25" s="5">
+      <c r="AJ25" s="11">
         <v>2100</v>
       </c>
-      <c r="AK25" s="5">
+      <c r="AK25" s="6">
         <v>1.6839066390918756E-4</v>
       </c>
-      <c r="AL25" s="5">
+      <c r="AL25" s="6">
         <v>1.5948002851619568E-4</v>
       </c>
-      <c r="AM25" s="5">
+      <c r="AM25" s="6">
         <v>1.5614918062262451E-4</v>
       </c>
-      <c r="AN25" s="5">
+      <c r="AN25" s="6">
         <v>1.6159787174571449E-4</v>
       </c>
-      <c r="AO25" s="5">
+      <c r="AO25" s="6">
         <v>1.6594585305878095E-4</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AQ25" s="11">
         <v>2100</v>
       </c>
-      <c r="AR25" s="5">
+      <c r="AR25" s="6">
         <v>1.8109292692546631E-4</v>
       </c>
-      <c r="AS25" s="5">
+      <c r="AS25" s="6">
         <v>1.7303499667413347E-4</v>
       </c>
-      <c r="AT25" s="5">
+      <c r="AT25" s="6">
         <v>1.6545806484028424E-4</v>
       </c>
-      <c r="AU25" s="5">
+      <c r="AU25" s="6">
         <v>1.7257920543678807E-4</v>
       </c>
-      <c r="AV25" s="5">
+      <c r="AV25" s="6">
         <v>1.7937031897590828E-4</v>
       </c>
+      <c r="AX25" s="11">
+        <v>2100</v>
+      </c>
+      <c r="AY25" s="6">
+        <v>1.9777153691930837E-4</v>
+      </c>
+      <c r="AZ25" s="6">
+        <v>1.8897154331303789E-4</v>
+      </c>
+      <c r="BA25" s="6">
+        <v>1.8069682579147984E-4</v>
+      </c>
+      <c r="BB25" s="6">
+        <v>1.8847377227998452E-4</v>
+      </c>
+      <c r="BC25" s="6">
+        <v>1.9589029415327308E-4</v>
+      </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>2200</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="11">
         <v>2200</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>4.9049043328171506E-5</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <v>4.6453600456573539E-5</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <v>4.5482802562339383E-5</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <v>4.7070157883151717E-5</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="6">
         <v>4.8336994037915246E-5</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="6">
         <v>2200</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="6">
         <v>5.3566606468737346E-5</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="Q26" s="6">
         <v>5.0732121390932308E-5</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="6">
         <v>4.9671912049928378E-5</v>
       </c>
-      <c r="S26" s="5">
+      <c r="S26" s="6">
         <v>5.1405464298412976E-5</v>
       </c>
-      <c r="T26" s="5">
+      <c r="T26" s="6">
         <v>5.2788977008755843E-5</v>
       </c>
-      <c r="V26" s="5">
+      <c r="V26" s="11">
         <v>2200</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="6">
         <v>5.8500244618860384E-5</v>
       </c>
-      <c r="X26" s="5">
+      <c r="X26" s="6">
         <v>5.5404702275327897E-5</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="6">
         <v>5.424684691889614E-5</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="6">
         <v>5.6140060450933784E-5</v>
       </c>
-      <c r="AA26" s="5">
+      <c r="AA26" s="6">
         <v>5.7650995273766382E-5</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AC26" s="11">
         <v>2200</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AD26" s="6">
         <v>6.3888277811872677E-5</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AE26" s="6">
         <v>6.0507635797646399E-5</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AF26" s="6">
         <v>5.9243141533776854E-5</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AG26" s="6">
         <v>6.1310720636691956E-5</v>
       </c>
-      <c r="AH26" s="5">
+      <c r="AH26" s="6">
         <v>6.2960812678421459E-5</v>
       </c>
-      <c r="AJ26" s="5">
+      <c r="AJ26" s="11">
         <v>2200</v>
       </c>
-      <c r="AK26" s="5">
+      <c r="AK26" s="6">
         <v>6.9772555088160043E-5</v>
       </c>
-      <c r="AL26" s="5">
+      <c r="AL26" s="6">
         <v>6.6080556989645545E-5</v>
       </c>
-      <c r="AM26" s="5">
+      <c r="AM26" s="6">
         <v>6.4699602781970739E-5</v>
       </c>
-      <c r="AN26" s="5">
+      <c r="AN26" s="6">
         <v>6.6957605840974315E-5</v>
       </c>
-      <c r="AO26" s="5">
+      <c r="AO26" s="6">
         <v>6.8759670866003764E-5</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AQ26" s="11">
         <v>2200</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AR26" s="6">
         <v>7.3388024830025605E-5</v>
       </c>
-      <c r="AS26" s="5">
+      <c r="AS26" s="6">
         <v>7.101522016244311E-5</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AT26" s="6">
         <v>6.5696502927544692E-5</v>
       </c>
-      <c r="AU26" s="5">
+      <c r="AU26" s="6">
         <v>6.9260370142663059E-5</v>
       </c>
-      <c r="AV26" s="5">
+      <c r="AV26" s="6">
         <v>7.3215175532643782E-5</v>
       </c>
+      <c r="AX26" s="11">
+        <v>2200</v>
+      </c>
+      <c r="AY26" s="6">
+        <v>8.014724082156144E-5</v>
+      </c>
+      <c r="AZ26" s="6">
+        <v>7.7555903184723936E-5</v>
+      </c>
+      <c r="BA26" s="6">
+        <v>7.1747333772412828E-5</v>
+      </c>
+      <c r="BB26" s="6">
+        <v>7.5639432279049902E-5</v>
+      </c>
+      <c r="BC26" s="6">
+        <v>7.9958472397863024E-5</v>
+      </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>2300</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>2.8260071922314118</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>2.3719055573863752</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>1.8576996739219023</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>1.8234953185224716</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>1.4383108312259212</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="11">
         <v>2300</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="6">
         <v>3.0439898727141479E-5</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="6">
         <v>2.8829148613018774E-5</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>2.8226665232500281E-5</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="6">
         <v>2.9211788269201122E-5</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="6">
         <v>2.9997995678154865E-5</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="6">
         <v>2300</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="6">
         <v>3.3243519652670361E-5</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="6">
         <v>3.1484415937865773E-5</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="6">
         <v>3.082644243523891E-5</v>
       </c>
-      <c r="S27" s="5">
+      <c r="S27" s="6">
         <v>3.1902297572661276E-5</v>
       </c>
-      <c r="T27" s="5">
+      <c r="T27" s="6">
         <v>3.2760916403584694E-5</v>
       </c>
-      <c r="V27" s="5">
+      <c r="V27" s="11">
         <v>2300</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27" s="6">
         <v>3.6305361670152525E-5</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27" s="6">
         <v>3.438424099172499E-5</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Y27" s="6">
         <v>3.3665666711257813E-5</v>
       </c>
-      <c r="Z27" s="5">
+      <c r="Z27" s="6">
         <v>3.4840610397102179E-5</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AA27" s="6">
         <v>3.5778309739942227E-5</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AC27" s="11">
         <v>2300</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AD27" s="6">
         <v>3.9649207222380856E-5</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AE27" s="6">
         <v>3.7551147885561686E-5</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AF27" s="6">
         <v>3.6766391499853945E-5</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AG27" s="6">
         <v>3.8049549775431846E-5</v>
       </c>
-      <c r="AH27" s="5">
+      <c r="AH27" s="6">
         <v>3.9073612914108935E-5</v>
       </c>
-      <c r="AJ27" s="5">
+      <c r="AJ27" s="11">
         <v>2300</v>
       </c>
-      <c r="AK27" s="5">
+      <c r="AK27" s="6">
         <v>4.3301029060083263E-5</v>
       </c>
-      <c r="AL27" s="5">
+      <c r="AL27" s="6">
         <v>4.100973516207862E-5</v>
       </c>
-      <c r="AM27" s="5">
+      <c r="AM27" s="6">
         <v>4.0152701331175322E-5</v>
       </c>
-      <c r="AN27" s="5">
+      <c r="AN27" s="6">
         <v>4.1554040702107553E-5</v>
       </c>
-      <c r="AO27" s="5">
+      <c r="AO27" s="6">
         <v>4.2672421670941763E-5</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AQ27" s="11">
         <v>2300</v>
       </c>
-      <c r="AR27" s="5">
+      <c r="AR27" s="6">
         <v>4.5256296990203726E-5</v>
       </c>
-      <c r="AS27" s="5">
+      <c r="AS27" s="6">
         <v>4.3949774506890638E-5</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AT27" s="6">
         <v>4.0290512913099263E-5</v>
       </c>
-      <c r="AU27" s="5">
+      <c r="AU27" s="6">
         <v>4.2597198992688767E-5</v>
       </c>
-      <c r="AV27" s="5">
+      <c r="AV27" s="6">
         <v>4.5240913177369002E-5</v>
+      </c>
+      <c r="AX27" s="11">
+        <v>2300</v>
+      </c>
+      <c r="AY27" s="6">
+        <v>4.9424546261722657E-5</v>
+      </c>
+      <c r="AZ27" s="6">
+        <v>4.7997691419776611E-5</v>
+      </c>
+      <c r="BA27" s="6">
+        <v>4.4001406097726736E-5</v>
+      </c>
+      <c r="BB27" s="6">
+        <v>4.6520541773564794E-5</v>
+      </c>
+      <c r="BC27" s="6">
+        <v>4.9407745581653284E-5</v>
       </c>
     </row>
   </sheetData>
